--- a/downloaded_files/CMPS457_Tutorial-35555.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,15 +114,6 @@
     <x:t>Abdelrahman Hamdy Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210016</x:t>
   </x:si>
   <x:si>
@@ -238,24 +229,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Ahmed Abdelfatah Elkorashy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230122</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور محمد سامح عبدالعزيز ابوسيف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour mohamed sameh abdelaziz abosaif</x:t>
   </x:si>
   <x:si>
     <x:t>1210319</x:t>
@@ -398,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1077,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.4145680208</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145680208</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45914.7161256134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.7161256134</x:v>
+        <x:v>45906.4442772801</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4442772801</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45913.785434838</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.785434838</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1434,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45909.4165446759</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1466,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4165446759</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1498,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144648148</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1530,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.8698584143</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1574,102 +1547,6 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45906.4182658912</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.4144923958</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:20">
-      <x:c r="A29" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C29" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="E29" s="3">
-        <x:v>45913.7857706829</x:v>
-      </x:c>
-      <x:c r="F29" s="2" t="s"/>
-      <x:c r="G29" s="2" t="s"/>
-      <x:c r="H29" s="2" t="s"/>
-      <x:c r="I29" s="2" t="s"/>
-      <x:c r="J29" s="2" t="s"/>
-      <x:c r="K29" s="2" t="s"/>
-      <x:c r="L29" s="2" t="s"/>
-      <x:c r="M29" s="2" t="s"/>
-      <x:c r="N29" s="2" t="s"/>
-      <x:c r="O29" s="2" t="s"/>
-      <x:c r="P29" s="2" t="s"/>
-      <x:c r="Q29" s="2" t="s"/>
-      <x:c r="R29" s="2" t="s"/>
-      <x:c r="S29" s="2" t="s"/>
-      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35555.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Yusuf Ahmed El Sayed Ahmed Salama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ايمن محمد رضا عبدالحكم علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Ayman Mohamed Reda AbdelHakam Aly</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -371,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1547,6 +1556,38 @@
       <x:c r="R26" s="2" t="s"/>
       <x:c r="S26" s="2" t="s"/>
       <x:c r="T26" s="2" t="s"/>
+    </x:row>
+    <x:row r="27" spans="1:20">
+      <x:c r="A27" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B27" s="2" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D27" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="E27" s="3">
+        <x:v>45925.6739006944</x:v>
+      </x:c>
+      <x:c r="F27" s="2" t="s"/>
+      <x:c r="G27" s="2" t="s"/>
+      <x:c r="H27" s="2" t="s"/>
+      <x:c r="I27" s="2" t="s"/>
+      <x:c r="J27" s="2" t="s"/>
+      <x:c r="K27" s="2" t="s"/>
+      <x:c r="L27" s="2" t="s"/>
+      <x:c r="M27" s="2" t="s"/>
+      <x:c r="N27" s="2" t="s"/>
+      <x:c r="O27" s="2" t="s"/>
+      <x:c r="P27" s="2" t="s"/>
+      <x:c r="Q27" s="2" t="s"/>
+      <x:c r="R27" s="2" t="s"/>
+      <x:c r="S27" s="2" t="s"/>
+      <x:c r="T27" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35555.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Karim Ayman Nabil Hasseb Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1210388</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1219,7 +1228,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45926.5741745718</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1260,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1292,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1324,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1356,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1388,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.785434838</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1420,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45913.785434838</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4165446759</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45909.4165446759</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45913.7857706829</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45925.6739006944</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45925.6739006944</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35555.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -238,6 +238,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Ahmed Abdelfatah Elkorashy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>معاذ محمد السيد هاشم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moaz Mohamed Alsayed Hashem</x:t>
   </x:si>
   <x:si>
     <x:t>1210319</x:t>
@@ -389,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1516,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45913.7857706829</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45925.6739006944</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1638,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45925.6739006944</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35555.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,6 +31,15 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>الاء هيثم محمود عبد العزيز</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alaa Haytham Mahmoud Abd el aziz</x:t>
   </x:si>
   <x:si>
     <x:t>1210002</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -789,7 +798,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.4155851505</x:v>
+        <x:v>45928.3158057523</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -821,7 +830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45913.7855866551</x:v>
+        <x:v>45906.4155851505</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -853,7 +862,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45913.7856849884</x:v>
+        <x:v>45913.7855866551</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -885,7 +894,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4141525463</x:v>
+        <x:v>45913.7856849884</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -917,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45906.4141525463</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -949,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45918.5950734954</x:v>
+        <x:v>45906.4145456019</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -981,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4152021991</x:v>
+        <x:v>45918.5950734954</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1013,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45906.4152021991</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1045,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.7149191782</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45914.7149191782</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4145680208</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45906.4145680208</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.7161256134</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4442772801</x:v>
+        <x:v>45914.7161256134</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45926.5741745718</x:v>
+        <x:v>45906.4442772801</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45926.5741745718</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.785434838</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45913.785434838</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45909.4165446759</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45909.4165446759</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45913.7857706829</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45925.6739006944</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45925.6739006944</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35555.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -193,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ashraf Mohamed Mamdouh Ibrahim</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد توفيق اسماعيل توفيق اسماعيل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Tawfik Ismail Tawfik</x:t>
   </x:si>
   <x:si>
     <x:t>1210026</x:t>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +716,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1374,7 +1383,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45928.9571754282</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.785434838</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45913.785434838</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4165446759</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45909.4165446759</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.7857706829</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45925.6739006944</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1720,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45925.6739006944</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35555.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,15 +40,6 @@
   </x:si>
   <x:si>
     <x:t>Alaa Haytham Mahmoud Abd el aziz</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210002</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ايه محمد عبد التواب السيد محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aya Mohamed Abdeltawab Alsayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210048</x:t>
@@ -416,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -716,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -839,7 +830,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4155851505</x:v>
+        <x:v>45913.7855866551</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -871,7 +862,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45913.7855866551</x:v>
+        <x:v>45913.7856849884</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -903,7 +894,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45913.7856849884</x:v>
+        <x:v>45906.4141525463</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -935,7 +926,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4141525463</x:v>
+        <x:v>45906.4145456019</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -967,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4145456019</x:v>
+        <x:v>45918.5950734954</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -999,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45918.5950734954</x:v>
+        <x:v>45906.4152021991</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1031,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4152021991</x:v>
+        <x:v>45906.4142010417</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1063,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4142010417</x:v>
+        <x:v>45914.7149191782</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1095,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.7149191782</x:v>
+        <x:v>45906.4146170486</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1127,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4146170486</x:v>
+        <x:v>45906.4145680208</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1159,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145680208</x:v>
+        <x:v>45906.414037963</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1191,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.414037963</x:v>
+        <x:v>45914.7161256134</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1223,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.7161256134</x:v>
+        <x:v>45906.4442772801</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1255,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4442772801</x:v>
+        <x:v>45926.5741745718</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1287,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45926.5741745718</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1319,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1351,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45928.9571754282</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1383,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45928.9571754282</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1415,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1447,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45913.785434838</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45913.785434838</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45909.4165446759</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45909.4165446759</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45913.7857706829</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45913.7857706829</x:v>
+        <x:v>45925.6739006944</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1720,38 +1711,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45925.6739006944</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35555.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35555.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -159,6 +159,15 @@
     <x:t>Karim Ayman Nabil Hasseb Mohamed</x:t>
   </x:si>
   <x:si>
+    <x:t>1210111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كريم محمد سيد احمد على عبد ربه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Karim mohamed sayed ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230095</x:t>
   </x:si>
   <x:si>
@@ -256,6 +265,15 @@
   </x:si>
   <x:si>
     <x:t>Moaz Mohamed Alsayed Hashem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210319</x:t>
@@ -407,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1246,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45926.5741745718</x:v>
+        <x:v>45932.4620121528</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.7057606481</x:v>
+        <x:v>45926.5741745718</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4141048611</x:v>
+        <x:v>45914.7057606481</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45928.9571754282</x:v>
+        <x:v>45906.4141048611</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.416505706</x:v>
+        <x:v>45928.9571754282</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4140243056</x:v>
+        <x:v>45906.416505706</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4143989583</x:v>
+        <x:v>45906.4140243056</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45913.785434838</x:v>
+        <x:v>45906.4143989583</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4146067477</x:v>
+        <x:v>45913.785434838</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45909.4165446759</x:v>
+        <x:v>45906.4146067477</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45927.06280625</x:v>
+        <x:v>45909.4165446759</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4182658912</x:v>
+        <x:v>45927.06280625</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4144923958</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1680,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45913.7857706829</x:v>
+        <x:v>45906.4182658912</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1694,7 +1712,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45925.6739006944</x:v>
+        <x:v>45906.4144923958</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1711,6 +1729,70 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45913.7857706829</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45925.6739006944</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS457_Tutorial-35555.xlsx
+++ b/downloaded_files/CMPS457_Tutorial-35555.xlsx
@@ -174,7 +174,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1210388</x:t>
